--- a/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6306,7 +6306,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-29 10:45:37</t>
+          <t>2025-11-18 14:38:17</t>
         </is>
       </c>
     </row>

--- a/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6306,7 +6306,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-11-18 14:38:17</t>
+          <t>2025-11-18 14:51:27</t>
         </is>
       </c>
     </row>
